--- a/Test Data/Verify IS Calculation on updating Cable Capacitance for PFI.xlsx
+++ b/Test Data/Verify IS Calculation on updating Cable Capacitance for PFI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE8921-CD1B-4960-94EF-6F07DFDE8A82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>Color Codes</t>
   </si>
@@ -91,12 +90,18 @@
   </si>
   <si>
     <t xml:space="preserve">Verify IS Calculation on updating cable capacitance </t>
+  </si>
+  <si>
+    <t>ISUnitsLoadingDetail</t>
+  </si>
+  <si>
+    <t>Intrinsically Safe Units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -210,6 +215,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,6 +614,9 @@
       <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -633,6 +644,9 @@
       <c r="H8" s="13">
         <v>40</v>
       </c>
+      <c r="I8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -654,6 +668,9 @@
       <c r="H9" s="13">
         <v>37</v>
       </c>
+      <c r="I9" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
@@ -674,6 +691,9 @@
       <c r="H10" s="13">
         <v>34</v>
       </c>
+      <c r="I10" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
@@ -694,6 +714,9 @@
       <c r="H11" s="13">
         <v>31</v>
       </c>
+      <c r="I11" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
@@ -714,6 +737,9 @@
       <c r="H12" s="13">
         <v>28</v>
       </c>
+      <c r="I12" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
@@ -734,6 +760,9 @@
       <c r="H13" s="13">
         <v>25</v>
       </c>
+      <c r="I13" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
@@ -754,6 +783,9 @@
       <c r="H14" s="13">
         <v>23</v>
       </c>
+      <c r="I14" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
@@ -774,6 +806,9 @@
       <c r="H15" s="13">
         <v>21</v>
       </c>
+      <c r="I15" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
@@ -794,8 +829,11 @@
       <c r="H16" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>30</v>
       </c>
@@ -814,8 +852,11 @@
       <c r="H17" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>20</v>
       </c>
@@ -834,8 +875,11 @@
       <c r="H18" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>10</v>
       </c>
@@ -853,6 +897,9 @@
       </c>
       <c r="H19" s="13">
         <v>13</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
